--- a/Projects/files/scores.xlsx
+++ b/Projects/files/scores.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\MBCA\Python\Projects\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C82DBC61-82C8-4C5D-BCBC-5BA534A8E36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B88F83-7A37-4FFF-9D6B-6340C9280AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3480" windowWidth="21600" windowHeight="11235" xr2:uid="{9CF4F753-C623-4101-8DFA-1CEE8A8F0418}"/>
+    <workbookView xWindow="3405" yWindow="2430" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{9CF4F753-C623-4101-8DFA-1CEE8A8F0418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scores" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,13 +75,40 @@
   <si>
     <t>박찬호</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정호준</t>
+  </si>
+  <si>
+    <t>최수정</t>
+  </si>
+  <si>
+    <t>박민수</t>
+  </si>
+  <si>
+    <t>이영희</t>
+  </si>
+  <si>
+    <t>김철수</t>
+  </si>
+  <si>
+    <t>수학</t>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>국어</t>
+  </si>
+  <si>
+    <t>이름</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +122,13 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,18 +149,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{516EB4C6-8C99-4AF9-ABD7-E293C70917CE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5719F10B-6CC5-4294-9ABB-0BDC06EED397}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -547,4 +585,105 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20E3DA9-BE22-4E3E-8DDE-4BAACE750FA6}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>